--- a/result/gr50_09_simulated/details.xlsx
+++ b/result/gr50_09_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3767590522766113</v>
+        <v>0.4214906692504883</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>377.8284910705934</v>
+        <v>391.5080634653295</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01508747553892885</v>
+        <v>0.01487401281013962</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01288656651464262</v>
+        <v>0.01173913137544259</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01097960768533198</v>
+        <v>0.01068783509471432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01032768474831993</v>
+        <v>0.009330681130351386</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009521284648389939</v>
+        <v>0.009141809519973794</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00888669774111242</v>
+        <v>0.008686094586635155</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008370181135709904</v>
+        <v>0.008543903460618079</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008260707012186027</v>
+        <v>0.008439079480885601</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007936346727339632</v>
+        <v>0.008439079480885601</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007839358257423221</v>
+        <v>0.008219063424769423</v>
       </c>
       <c r="P2" t="n">
-        <v>0.007629201435273654</v>
+        <v>0.008143757360676334</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.007629201435273654</v>
+        <v>0.008055718503233117</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00762350967772792</v>
+        <v>0.007790026963101831</v>
       </c>
       <c r="S2" t="n">
-        <v>0.007579868288232272</v>
+        <v>0.007790026963101831</v>
       </c>
       <c r="T2" t="n">
-        <v>0.007538478514046264</v>
+        <v>0.007770669148991911</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007456879041940365</v>
+        <v>0.007762232450338706</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00743578452256114</v>
+        <v>0.007694904104483942</v>
       </c>
       <c r="W2" t="n">
-        <v>0.007418513894902354</v>
+        <v>0.007690447973004655</v>
       </c>
       <c r="X2" t="n">
-        <v>0.007365077798647042</v>
+        <v>0.007673125165817578</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.007365077798647042</v>
+        <v>0.007631736129928449</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.641000509262085</v>
+        <v>0.4155347347259521</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>382.7188660548309</v>
+        <v>394.4358961441503</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01435860663013972</v>
+        <v>0.01486086559180789</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01161556535645418</v>
+        <v>0.01239571431091643</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0108490128767774</v>
+        <v>0.01089659202358738</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01015729333975352</v>
+        <v>0.01041545646954961</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009872022447851025</v>
+        <v>0.009876703316521029</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008719661013246434</v>
+        <v>0.009383835173560257</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008719661013246434</v>
+        <v>0.009085341256392855</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008628835792570332</v>
+        <v>0.008949734960971968</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008201136971132667</v>
+        <v>0.008749440036196517</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008140523488352137</v>
+        <v>0.008590248980310088</v>
       </c>
       <c r="P3" t="n">
-        <v>0.007944586476968319</v>
+        <v>0.00809356801349421</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.007836061910752565</v>
+        <v>0.008081664771651198</v>
       </c>
       <c r="R3" t="n">
-        <v>0.007581620760861448</v>
+        <v>0.008037154035295736</v>
       </c>
       <c r="S3" t="n">
-        <v>0.007581620760861448</v>
+        <v>0.007900937955367617</v>
       </c>
       <c r="T3" t="n">
-        <v>0.007573275862735766</v>
+        <v>0.00783369743418815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.007536846919480387</v>
+        <v>0.007824327946359878</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007530215452391389</v>
+        <v>0.007700937777668978</v>
       </c>
       <c r="W3" t="n">
-        <v>0.007493610561025446</v>
+        <v>0.007700937777668978</v>
       </c>
       <c r="X3" t="n">
-        <v>0.00747974348660973</v>
+        <v>0.007700937777668978</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.007460406745708202</v>
+        <v>0.007688808891698836</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6481080055236816</v>
+        <v>0.3906524181365967</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>388.3028068448984</v>
+        <v>393.3327093337593</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01466351031371742</v>
+        <v>0.01501075095763927</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01215130632404265</v>
+        <v>0.01225556827196887</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01051222543224058</v>
+        <v>0.01066016398700701</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01029707179380542</v>
+        <v>0.009719307002354551</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009884301804618674</v>
+        <v>0.009436522884056806</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009475651736605544</v>
+        <v>0.009110746838417569</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009246723437844792</v>
+        <v>0.008776658150022553</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009028801297118246</v>
+        <v>0.008637853744198523</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008733797104212579</v>
+        <v>0.008637853744198523</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008466538799242746</v>
+        <v>0.008509734735444653</v>
       </c>
       <c r="P4" t="n">
-        <v>0.008233103583598564</v>
+        <v>0.008454456300108796</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.008078533256583373</v>
+        <v>0.008366361152612301</v>
       </c>
       <c r="R4" t="n">
-        <v>0.007985840051705696</v>
+        <v>0.008117919846180027</v>
       </c>
       <c r="S4" t="n">
-        <v>0.007846196783404352</v>
+        <v>0.008117919846180027</v>
       </c>
       <c r="T4" t="n">
-        <v>0.007737547045231429</v>
+        <v>0.00807236740263502</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007737547045231429</v>
+        <v>0.007946264902342053</v>
       </c>
       <c r="V4" t="n">
-        <v>0.007620065600285757</v>
+        <v>0.007851891865966409</v>
       </c>
       <c r="W4" t="n">
-        <v>0.007606569730061578</v>
+        <v>0.007766691473560014</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0075717754931053</v>
+        <v>0.007713018742021399</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0075692554940526</v>
+        <v>0.007667304275511877</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5095503330230713</v>
+        <v>0.3749721050262451</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>379.1379935841032</v>
+        <v>374.0917530445331</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01536807028412763</v>
+        <v>0.0156223292812564</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01262008877473405</v>
+        <v>0.01164470385329851</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0105535491734555</v>
+        <v>0.01046936646909238</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009616253985544932</v>
+        <v>0.009604811391567897</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009225754931089715</v>
+        <v>0.009221860737736639</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008772020671649281</v>
+        <v>0.008746951909401578</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008431423156519149</v>
+        <v>0.008438361041362884</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00814734325183211</v>
+        <v>0.008408543188531382</v>
       </c>
       <c r="N5" t="n">
-        <v>0.008032631170118517</v>
+        <v>0.008242790314507854</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008032631170118517</v>
+        <v>0.007916860302503994</v>
       </c>
       <c r="P5" t="n">
-        <v>0.007672699050218941</v>
+        <v>0.007805632465968913</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.007655772357324251</v>
+        <v>0.007647903673662484</v>
       </c>
       <c r="R5" t="n">
-        <v>0.007592521497152803</v>
+        <v>0.007613875656365545</v>
       </c>
       <c r="S5" t="n">
-        <v>0.007553542502533552</v>
+        <v>0.007613875656365545</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007531729385238051</v>
+        <v>0.007398628357417084</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007397361517656182</v>
+        <v>0.007368133604985428</v>
       </c>
       <c r="V5" t="n">
-        <v>0.007393916137675383</v>
+        <v>0.007347951223551188</v>
       </c>
       <c r="W5" t="n">
-        <v>0.007393916137675383</v>
+        <v>0.007292236901452885</v>
       </c>
       <c r="X5" t="n">
-        <v>0.007393916137675383</v>
+        <v>0.007292236901452885</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.00739060416343281</v>
+        <v>0.007292236901452885</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4363951683044434</v>
+        <v>0.4062495231628418</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>393.9500989652934</v>
+        <v>395.2947960853926</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01448748522394924</v>
+        <v>0.01535112010910288</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01225761839844985</v>
+        <v>0.01217937147587525</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01103101572716905</v>
+        <v>0.01052218124013061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01050679762225705</v>
+        <v>0.01009822869905259</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01006805573405222</v>
+        <v>0.009590056364027651</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009588033877809921</v>
+        <v>0.009158424328888229</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00923927629632107</v>
+        <v>0.009010402458605358</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009010921892345826</v>
+        <v>0.008964887933980772</v>
       </c>
       <c r="N6" t="n">
-        <v>0.008820409167429035</v>
+        <v>0.008285141132711114</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008410347383387293</v>
+        <v>0.008285141132711114</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008349549431484056</v>
+        <v>0.008285141132711114</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00804683165094628</v>
+        <v>0.008285141132711114</v>
       </c>
       <c r="R6" t="n">
-        <v>0.007951134016278047</v>
+        <v>0.008079737399571863</v>
       </c>
       <c r="S6" t="n">
-        <v>0.007854206810073176</v>
+        <v>0.007925033604594865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.007854206810073176</v>
+        <v>0.007803733034794261</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007854206810073176</v>
+        <v>0.007795111721787047</v>
       </c>
       <c r="V6" t="n">
-        <v>0.007807445568097485</v>
+        <v>0.007795111721787047</v>
       </c>
       <c r="W6" t="n">
-        <v>0.007688497141861887</v>
+        <v>0.007795111721787047</v>
       </c>
       <c r="X6" t="n">
-        <v>0.007688497141861887</v>
+        <v>0.007738850780379154</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.007679339161116829</v>
+        <v>0.007705551580611939</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7173366546630859</v>
+        <v>0.3750381469726562</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>390.5970154144379</v>
+        <v>378.7706983889238</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01547948097331407</v>
+        <v>0.01484058267703947</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01269985042676675</v>
+        <v>0.01219741434529057</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01075699675389249</v>
+        <v>0.01081476701275156</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009981431604154309</v>
+        <v>0.009959888420104198</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009689810039557056</v>
+        <v>0.008926599690856421</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009297169691713437</v>
+        <v>0.008721063625342397</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009112613700512027</v>
+        <v>0.00858125004455544</v>
       </c>
       <c r="M7" t="n">
-        <v>0.008804980447155322</v>
+        <v>0.00823856093919377</v>
       </c>
       <c r="N7" t="n">
-        <v>0.008338136028662232</v>
+        <v>0.008060018359920347</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008110081879694985</v>
+        <v>0.008000562139575592</v>
       </c>
       <c r="P7" t="n">
-        <v>0.008073477563664968</v>
+        <v>0.00793307105900572</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.008056991477056213</v>
+        <v>0.007811222961919983</v>
       </c>
       <c r="R7" t="n">
-        <v>0.007922324478829224</v>
+        <v>0.007639663146828378</v>
       </c>
       <c r="S7" t="n">
-        <v>0.007817305160988537</v>
+        <v>0.007639663146828378</v>
       </c>
       <c r="T7" t="n">
-        <v>0.007793452030380836</v>
+        <v>0.007552981895750009</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007725524336208506</v>
+        <v>0.007537117415090069</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00770904064071437</v>
+        <v>0.007447566121157855</v>
       </c>
       <c r="W7" t="n">
-        <v>0.00770904064071437</v>
+        <v>0.007447472835343896</v>
       </c>
       <c r="X7" t="n">
-        <v>0.007613976908663506</v>
+        <v>0.007383444413039449</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.007613976908663506</v>
+        <v>0.007383444413039449</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6186079978942871</v>
+        <v>0.3749895095825195</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1981517658278</v>
+        <v>404.5853246511815</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01490414499142171</v>
+        <v>0.01501684414691057</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0119722782639083</v>
+        <v>0.01294771677502004</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01096129751438337</v>
+        <v>0.01124731311590158</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01023531676698792</v>
+        <v>0.01017757595711667</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009702020607474462</v>
+        <v>0.009376488273568819</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00930500434929379</v>
+        <v>0.009266777950411515</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008945268098457347</v>
+        <v>0.009266777950411515</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00841883507266274</v>
+        <v>0.008922273908277109</v>
       </c>
       <c r="N8" t="n">
-        <v>0.008279675555799856</v>
+        <v>0.00871258672989635</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008077597689903786</v>
+        <v>0.008655507376042343</v>
       </c>
       <c r="P8" t="n">
-        <v>0.007876812498821042</v>
+        <v>0.008384059003399679</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.007876812498821042</v>
+        <v>0.008296645302643756</v>
       </c>
       <c r="R8" t="n">
-        <v>0.007776655688104054</v>
+        <v>0.008228209099681447</v>
       </c>
       <c r="S8" t="n">
-        <v>0.007686412609592119</v>
+        <v>0.00815822404091217</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007626766226527378</v>
+        <v>0.008056274562204209</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007593447428842312</v>
+        <v>0.008029837251642444</v>
       </c>
       <c r="V8" t="n">
-        <v>0.007592758831877176</v>
+        <v>0.007963885250049246</v>
       </c>
       <c r="W8" t="n">
-        <v>0.007573966526196471</v>
+        <v>0.00791049510503755</v>
       </c>
       <c r="X8" t="n">
-        <v>0.007480695906959555</v>
+        <v>0.00791049510503755</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.007469749547092158</v>
+        <v>0.007886653501972346</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4874682426452637</v>
+        <v>0.46872878074646</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>378.2333687203318</v>
+        <v>384.9595354773101</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01454720692238207</v>
+        <v>0.01508986923990492</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0117871535610285</v>
+        <v>0.01281312083344518</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01038083502884859</v>
+        <v>0.01071001888151002</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01001307212042418</v>
+        <v>0.01010054734706933</v>
       </c>
       <c r="J9" t="n">
-        <v>0.009641840066572991</v>
+        <v>0.01000299496701331</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009397760153815236</v>
+        <v>0.009414665097331441</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008689921784693702</v>
+        <v>0.00868647390723868</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008190284217618882</v>
+        <v>0.008625935912295686</v>
       </c>
       <c r="N9" t="n">
-        <v>0.008094496389342797</v>
+        <v>0.008413005382741036</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008014552939947918</v>
+        <v>0.008111643211449256</v>
       </c>
       <c r="P9" t="n">
-        <v>0.007749146694837852</v>
+        <v>0.008018997626378003</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.007749146694837852</v>
+        <v>0.00779837097444869</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00771832624288684</v>
+        <v>0.00779837097444869</v>
       </c>
       <c r="S9" t="n">
-        <v>0.007608252568360269</v>
+        <v>0.007725747153539908</v>
       </c>
       <c r="T9" t="n">
-        <v>0.007559895804196851</v>
+        <v>0.007555142356729959</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007462439333208237</v>
+        <v>0.007553997729293456</v>
       </c>
       <c r="V9" t="n">
-        <v>0.007461236701966132</v>
+        <v>0.007509587242226616</v>
       </c>
       <c r="W9" t="n">
-        <v>0.007398158093474866</v>
+        <v>0.007509587242226616</v>
       </c>
       <c r="X9" t="n">
-        <v>0.007398158093474866</v>
+        <v>0.007509587242226616</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.007372970150493795</v>
+        <v>0.007504084512228264</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3826823234558105</v>
+        <v>0.4487597942352295</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8546189625904</v>
+        <v>374.6258951282925</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01503159271666861</v>
+        <v>0.0154082046939301</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01182840772015814</v>
+        <v>0.01226765608829645</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01065880355013257</v>
+        <v>0.01059133391809279</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01019289392517451</v>
+        <v>0.009852641974054159</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009085710733293931</v>
+        <v>0.009209363183251579</v>
       </c>
       <c r="K10" t="n">
-        <v>0.008800184842239352</v>
+        <v>0.008787487375102215</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008518198869614668</v>
+        <v>0.008428239056580425</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008067289810240227</v>
+        <v>0.00837327334979724</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008067289810240227</v>
+        <v>0.008169419065630987</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008067289810240227</v>
+        <v>0.007993284622946083</v>
       </c>
       <c r="P10" t="n">
-        <v>0.007791946339919013</v>
+        <v>0.007874369314754376</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.007772406211970483</v>
+        <v>0.007726887298274774</v>
       </c>
       <c r="R10" t="n">
-        <v>0.007739920648607516</v>
+        <v>0.007634650047909592</v>
       </c>
       <c r="S10" t="n">
-        <v>0.007612186398404424</v>
+        <v>0.007572541165067709</v>
       </c>
       <c r="T10" t="n">
-        <v>0.007504232634999186</v>
+        <v>0.007566519234626902</v>
       </c>
       <c r="U10" t="n">
-        <v>0.007391422677993868</v>
+        <v>0.007425684563618809</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007343019686719116</v>
+        <v>0.007425684563618809</v>
       </c>
       <c r="W10" t="n">
-        <v>0.007307287294882479</v>
+        <v>0.007337526725766675</v>
       </c>
       <c r="X10" t="n">
-        <v>0.007268121227340941</v>
+        <v>0.007337526725766675</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.007268121227340941</v>
+        <v>0.007302649027841958</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3930535316467285</v>
+        <v>0.4062039852142334</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>386.9794195059621</v>
+        <v>402.1185997150969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01506558808641891</v>
+        <v>0.01391244208316284</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01242137413828594</v>
+        <v>0.01172603935901344</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01060809210390963</v>
+        <v>0.01100454952501474</v>
       </c>
       <c r="I11" t="n">
-        <v>0.009813814059352858</v>
+        <v>0.01093676855389992</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009104642976912726</v>
+        <v>0.01003773686803902</v>
       </c>
       <c r="K11" t="n">
-        <v>0.008912368461011001</v>
+        <v>0.009717608735873866</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008739255242771174</v>
+        <v>0.009282803829237537</v>
       </c>
       <c r="M11" t="n">
-        <v>0.008359192310095964</v>
+        <v>0.00907272228495651</v>
       </c>
       <c r="N11" t="n">
-        <v>0.008359192310095964</v>
+        <v>0.008784075319131144</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008248204583184583</v>
+        <v>0.008611235810706833</v>
       </c>
       <c r="P11" t="n">
-        <v>0.008055548845426506</v>
+        <v>0.008459596386065563</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.007988905831646059</v>
+        <v>0.008309884376095885</v>
       </c>
       <c r="R11" t="n">
-        <v>0.007954322656458858</v>
+        <v>0.008256626452859126</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007915724702782852</v>
+        <v>0.008138812950416185</v>
       </c>
       <c r="T11" t="n">
-        <v>0.007745031158665049</v>
+        <v>0.008028112115027847</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007720723128742697</v>
+        <v>0.007986934398802589</v>
       </c>
       <c r="V11" t="n">
-        <v>0.007618413760848593</v>
+        <v>0.007967765787042662</v>
       </c>
       <c r="W11" t="n">
-        <v>0.007585759311516321</v>
+        <v>0.007934488099060409</v>
       </c>
       <c r="X11" t="n">
-        <v>0.007543458469901794</v>
+        <v>0.007856166202656065</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.007543458469901794</v>
+        <v>0.007838569195226059</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr50_09_simulated/details.xlsx
+++ b/result/gr50_09_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4214906692504883</v>
+        <v>0.9589784145355225</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>391.5080634653295</v>
+        <v>325.6107404475042</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01487401281013962</v>
+        <v>0.01522295381554292</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01173913137544259</v>
+        <v>0.01203426725805245</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01068783509471432</v>
+        <v>0.01046367017614035</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009330681130351386</v>
+        <v>0.009387097712417695</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009141809519973794</v>
+        <v>0.008743236199409411</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008686094586635155</v>
+        <v>0.007874141587312228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008543903460618079</v>
+        <v>0.007685012470354559</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008439079480885601</v>
+        <v>0.007466545301897488</v>
       </c>
       <c r="N2" t="n">
-        <v>0.008439079480885601</v>
+        <v>0.00725857159268521</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008219063424769423</v>
+        <v>0.007028698450637365</v>
       </c>
       <c r="P2" t="n">
-        <v>0.008143757360676334</v>
+        <v>0.007001329766525526</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.008055718503233117</v>
+        <v>0.007000897497714743</v>
       </c>
       <c r="R2" t="n">
-        <v>0.007790026963101831</v>
+        <v>0.006903842386797199</v>
       </c>
       <c r="S2" t="n">
-        <v>0.007790026963101831</v>
+        <v>0.006823619127550031</v>
       </c>
       <c r="T2" t="n">
-        <v>0.007770669148991911</v>
+        <v>0.006570010897062495</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007762232450338706</v>
+        <v>0.006550011282277756</v>
       </c>
       <c r="V2" t="n">
-        <v>0.007694904104483942</v>
+        <v>0.006434373789056903</v>
       </c>
       <c r="W2" t="n">
-        <v>0.007690447973004655</v>
+        <v>0.006434373789056903</v>
       </c>
       <c r="X2" t="n">
-        <v>0.007673125165817578</v>
+        <v>0.006403016657405585</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.007631736129928449</v>
+        <v>0.006347187922953297</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4155347347259521</v>
+        <v>0.8359975814819336</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>394.4358961441503</v>
+        <v>323.4395295460508</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01486086559180789</v>
+        <v>0.01520188765163886</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01239571431091643</v>
+        <v>0.01162056397092288</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01089659202358738</v>
+        <v>0.009358328249736177</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01041545646954961</v>
+        <v>0.008506827521800124</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009876703316521029</v>
+        <v>0.008206739437993486</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009383835173560257</v>
+        <v>0.007529872942344929</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009085341256392855</v>
+        <v>0.007264489094723102</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008949734960971968</v>
+        <v>0.007077128908558042</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008749440036196517</v>
+        <v>0.006889356920258995</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008590248980310088</v>
+        <v>0.006830762990116426</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00809356801349421</v>
+        <v>0.006698157538724481</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.008081664771651198</v>
+        <v>0.006414141173685222</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008037154035295736</v>
+        <v>0.006414141173685222</v>
       </c>
       <c r="S3" t="n">
-        <v>0.007900937955367617</v>
+        <v>0.006414141173685222</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00783369743418815</v>
+        <v>0.006414141173685222</v>
       </c>
       <c r="U3" t="n">
-        <v>0.007824327946359878</v>
+        <v>0.006414141173685222</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007700937777668978</v>
+        <v>0.006381795563233501</v>
       </c>
       <c r="W3" t="n">
-        <v>0.007700937777668978</v>
+        <v>0.006381795563233501</v>
       </c>
       <c r="X3" t="n">
-        <v>0.007700937777668978</v>
+        <v>0.006366880323735583</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.007688808891698836</v>
+        <v>0.006304864123704693</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3906524181365967</v>
+        <v>0.8600001335144043</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>393.3327093337593</v>
+        <v>326.3546697341662</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01501075095763927</v>
+        <v>0.01508564402090302</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01225556827196887</v>
+        <v>0.01123366606423435</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01066016398700701</v>
+        <v>0.009438396495582363</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009719307002354551</v>
+        <v>0.009054009278655012</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009436522884056806</v>
+        <v>0.008764869378956772</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009110746838417569</v>
+        <v>0.008012932115079589</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008776658150022553</v>
+        <v>0.007632157328741571</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008637853744198523</v>
+        <v>0.007447872380018795</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008637853744198523</v>
+        <v>0.007096562686316356</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008509734735444653</v>
+        <v>0.00700875915653797</v>
       </c>
       <c r="P4" t="n">
-        <v>0.008454456300108796</v>
+        <v>0.006830646056521721</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.008366361152612301</v>
+        <v>0.006763443741447136</v>
       </c>
       <c r="R4" t="n">
-        <v>0.008117919846180027</v>
+        <v>0.006624143401553502</v>
       </c>
       <c r="S4" t="n">
-        <v>0.008117919846180027</v>
+        <v>0.006557537439805536</v>
       </c>
       <c r="T4" t="n">
-        <v>0.00807236740263502</v>
+        <v>0.006524634158498134</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007946264902342053</v>
+        <v>0.006408832913010036</v>
       </c>
       <c r="V4" t="n">
-        <v>0.007851891865966409</v>
+        <v>0.006408832913010036</v>
       </c>
       <c r="W4" t="n">
-        <v>0.007766691473560014</v>
+        <v>0.006408832913010036</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007713018742021399</v>
+        <v>0.006361689468502265</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.007667304275511877</v>
+        <v>0.006361689468502265</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3749721050262451</v>
+        <v>0.8229987621307373</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>374.0917530445331</v>
+        <v>329.3532944061844</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0156223292812564</v>
+        <v>0.01533738425161548</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01164470385329851</v>
+        <v>0.01242650990702754</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01046936646909238</v>
+        <v>0.01104618230891453</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009604811391567897</v>
+        <v>0.009895330762621354</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009221860737736639</v>
+        <v>0.009233906843296526</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008746951909401578</v>
+        <v>0.008263362854982421</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008438361041362884</v>
+        <v>0.008227962194479103</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008408543188531382</v>
+        <v>0.008037964958018161</v>
       </c>
       <c r="N5" t="n">
-        <v>0.008242790314507854</v>
+        <v>0.00769237197822747</v>
       </c>
       <c r="O5" t="n">
-        <v>0.007916860302503994</v>
+        <v>0.007145283092498087</v>
       </c>
       <c r="P5" t="n">
-        <v>0.007805632465968913</v>
+        <v>0.006987939715046188</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.007647903673662484</v>
+        <v>0.006941621845703708</v>
       </c>
       <c r="R5" t="n">
-        <v>0.007613875656365545</v>
+        <v>0.006716562396827017</v>
       </c>
       <c r="S5" t="n">
-        <v>0.007613875656365545</v>
+        <v>0.006647970373464894</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007398628357417084</v>
+        <v>0.006647970373464894</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007368133604985428</v>
+        <v>0.006647970373464894</v>
       </c>
       <c r="V5" t="n">
-        <v>0.007347951223551188</v>
+        <v>0.00652946908296456</v>
       </c>
       <c r="W5" t="n">
-        <v>0.007292236901452885</v>
+        <v>0.006471545001469941</v>
       </c>
       <c r="X5" t="n">
-        <v>0.007292236901452885</v>
+        <v>0.006420142191153692</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.007292236901452885</v>
+        <v>0.006420142191153692</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4062495231628418</v>
+        <v>0.7529628276824951</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>395.2947960853926</v>
+        <v>333.719393643536</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01535112010910288</v>
+        <v>0.01527701109838837</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01217937147587525</v>
+        <v>0.01199372904564168</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01052218124013061</v>
+        <v>0.01086043788878272</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01009822869905259</v>
+        <v>0.009446929706548641</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009590056364027651</v>
+        <v>0.008367819574422253</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009158424328888229</v>
+        <v>0.007936249144742304</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009010402458605358</v>
+        <v>0.007665486604341226</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008964887933980772</v>
+        <v>0.007400980125594338</v>
       </c>
       <c r="N6" t="n">
-        <v>0.008285141132711114</v>
+        <v>0.007159706820272055</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008285141132711114</v>
+        <v>0.00700372480019904</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008285141132711114</v>
+        <v>0.006884033529429402</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.008285141132711114</v>
+        <v>0.006674887404769903</v>
       </c>
       <c r="R6" t="n">
-        <v>0.008079737399571863</v>
+        <v>0.006674887404769903</v>
       </c>
       <c r="S6" t="n">
-        <v>0.007925033604594865</v>
+        <v>0.006674887404769903</v>
       </c>
       <c r="T6" t="n">
-        <v>0.007803733034794261</v>
+        <v>0.006641558733304459</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007795111721787047</v>
+        <v>0.00658818246601971</v>
       </c>
       <c r="V6" t="n">
-        <v>0.007795111721787047</v>
+        <v>0.00657714672163343</v>
       </c>
       <c r="W6" t="n">
-        <v>0.007795111721787047</v>
+        <v>0.006535129260011625</v>
       </c>
       <c r="X6" t="n">
-        <v>0.007738850780379154</v>
+        <v>0.006532107874889715</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.007705551580611939</v>
+        <v>0.006505251338080623</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3750381469726562</v>
+        <v>0.8060019016265869</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>378.7706983889238</v>
+        <v>334.3752094244355</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01484058267703947</v>
+        <v>0.01527005842666242</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01219741434529057</v>
+        <v>0.01253699458197416</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01081476701275156</v>
+        <v>0.01026905507399499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009959888420104198</v>
+        <v>0.009251222290491979</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008926599690856421</v>
+        <v>0.009093260832317089</v>
       </c>
       <c r="K7" t="n">
-        <v>0.008721063625342397</v>
+        <v>0.008471349291259547</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00858125004455544</v>
+        <v>0.007721843413224705</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00823856093919377</v>
+        <v>0.007721843413224705</v>
       </c>
       <c r="N7" t="n">
-        <v>0.008060018359920347</v>
+        <v>0.007503179756913949</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008000562139575592</v>
+        <v>0.007503179756913949</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00793307105900572</v>
+        <v>0.00722720924085626</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.007811222961919983</v>
+        <v>0.006975690658318976</v>
       </c>
       <c r="R7" t="n">
-        <v>0.007639663146828378</v>
+        <v>0.006975690658318976</v>
       </c>
       <c r="S7" t="n">
-        <v>0.007639663146828378</v>
+        <v>0.00692788882825091</v>
       </c>
       <c r="T7" t="n">
-        <v>0.007552981895750009</v>
+        <v>0.006785971799456117</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007537117415090069</v>
+        <v>0.006738721039002508</v>
       </c>
       <c r="V7" t="n">
-        <v>0.007447566121157855</v>
+        <v>0.006645004710487988</v>
       </c>
       <c r="W7" t="n">
-        <v>0.007447472835343896</v>
+        <v>0.006580999843249617</v>
       </c>
       <c r="X7" t="n">
-        <v>0.007383444413039449</v>
+        <v>0.006546625533174291</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.007383444413039449</v>
+        <v>0.006518035271431491</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3749895095825195</v>
+        <v>0.7199945449829102</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>404.5853246511815</v>
+        <v>322.8910549316734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01501684414691057</v>
+        <v>0.01546014076994576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01294771677502004</v>
+        <v>0.01253552032953864</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01124731311590158</v>
+        <v>0.01044941930156324</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01017757595711667</v>
+        <v>0.009703922213497024</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009376488273568819</v>
+        <v>0.009158192046421073</v>
       </c>
       <c r="K8" t="n">
-        <v>0.009266777950411515</v>
+        <v>0.00867918216013561</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009266777950411515</v>
+        <v>0.008456762397614212</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008922273908277109</v>
+        <v>0.007720614698782578</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00871258672989635</v>
+        <v>0.00728699863393909</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008655507376042343</v>
+        <v>0.007019898960384205</v>
       </c>
       <c r="P8" t="n">
-        <v>0.008384059003399679</v>
+        <v>0.006644134072997111</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008296645302643756</v>
+        <v>0.006644134072997111</v>
       </c>
       <c r="R8" t="n">
-        <v>0.008228209099681447</v>
+        <v>0.00663209500682782</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00815822404091217</v>
+        <v>0.006573959220548179</v>
       </c>
       <c r="T8" t="n">
-        <v>0.008056274562204209</v>
+        <v>0.006462019485681618</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008029837251642444</v>
+        <v>0.006462019485681618</v>
       </c>
       <c r="V8" t="n">
-        <v>0.007963885250049246</v>
+        <v>0.006413167032785945</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00791049510503755</v>
+        <v>0.006343545108804149</v>
       </c>
       <c r="X8" t="n">
-        <v>0.00791049510503755</v>
+        <v>0.006343545108804149</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.007886653501972346</v>
+        <v>0.006294172610753865</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.46872878074646</v>
+        <v>0.6900010108947754</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>384.9595354773101</v>
+        <v>322.2840425619033</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01508986923990492</v>
+        <v>0.0150355307767265</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01281312083344518</v>
+        <v>0.01209376724620526</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01071001888151002</v>
+        <v>0.01061008389663061</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01010054734706933</v>
+        <v>0.009615049880918432</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01000299496701331</v>
+        <v>0.009105086099668702</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009414665097331441</v>
+        <v>0.008392642625032719</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00868647390723868</v>
+        <v>0.008099157051108996</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008625935912295686</v>
+        <v>0.007690605311864913</v>
       </c>
       <c r="N9" t="n">
-        <v>0.008413005382741036</v>
+        <v>0.007155816308569913</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008111643211449256</v>
+        <v>0.006927488850893251</v>
       </c>
       <c r="P9" t="n">
-        <v>0.008018997626378003</v>
+        <v>0.006838045140799084</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00779837097444869</v>
+        <v>0.006714245834767967</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00779837097444869</v>
+        <v>0.006589411563768397</v>
       </c>
       <c r="S9" t="n">
-        <v>0.007725747153539908</v>
+        <v>0.006554647185649728</v>
       </c>
       <c r="T9" t="n">
-        <v>0.007555142356729959</v>
+        <v>0.006534087060830408</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007553997729293456</v>
+        <v>0.006469894904900344</v>
       </c>
       <c r="V9" t="n">
-        <v>0.007509587242226616</v>
+        <v>0.006469894904900344</v>
       </c>
       <c r="W9" t="n">
-        <v>0.007509587242226616</v>
+        <v>0.006282340010953279</v>
       </c>
       <c r="X9" t="n">
-        <v>0.007509587242226616</v>
+        <v>0.006282340010953279</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.007504084512228264</v>
+        <v>0.006282340010953279</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4487597942352295</v>
+        <v>0.8150005340576172</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>374.6258951282925</v>
+        <v>333.1910624220709</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0154082046939301</v>
+        <v>0.01556858398318656</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01226765608829645</v>
+        <v>0.01110503744729848</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01059133391809279</v>
+        <v>0.01042244034827254</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009852641974054159</v>
+        <v>0.009121335591016988</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009209363183251579</v>
+        <v>0.008273834883937303</v>
       </c>
       <c r="K10" t="n">
-        <v>0.008787487375102215</v>
+        <v>0.007361634589013379</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008428239056580425</v>
+        <v>0.007361634589013379</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00837327334979724</v>
+        <v>0.007361634589013379</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008169419065630987</v>
+        <v>0.007361634589013379</v>
       </c>
       <c r="O10" t="n">
-        <v>0.007993284622946083</v>
+        <v>0.007222363960406712</v>
       </c>
       <c r="P10" t="n">
-        <v>0.007874369314754376</v>
+        <v>0.00691511530516305</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.007726887298274774</v>
+        <v>0.006643131443058954</v>
       </c>
       <c r="R10" t="n">
-        <v>0.007634650047909592</v>
+        <v>0.006643131443058954</v>
       </c>
       <c r="S10" t="n">
-        <v>0.007572541165067709</v>
+        <v>0.006643131443058954</v>
       </c>
       <c r="T10" t="n">
-        <v>0.007566519234626902</v>
+        <v>0.006643131443058954</v>
       </c>
       <c r="U10" t="n">
-        <v>0.007425684563618809</v>
+        <v>0.006616975062492196</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007425684563618809</v>
+        <v>0.00651935508630903</v>
       </c>
       <c r="W10" t="n">
-        <v>0.007337526725766675</v>
+        <v>0.00651935508630903</v>
       </c>
       <c r="X10" t="n">
-        <v>0.007337526725766675</v>
+        <v>0.006501923750704688</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.007302649027841958</v>
+        <v>0.00649495248386103</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4062039852142334</v>
+        <v>0.890000581741333</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>402.1185997150969</v>
+        <v>331.8368499559328</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01391244208316284</v>
+        <v>0.01548982037978572</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01172603935901344</v>
+        <v>0.01178956995637096</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01100454952501474</v>
+        <v>0.01047149030301134</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01093676855389992</v>
+        <v>0.009481611048102183</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01003773686803902</v>
+        <v>0.00850349700955174</v>
       </c>
       <c r="K11" t="n">
-        <v>0.009717608735873866</v>
+        <v>0.007833113933871894</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009282803829237537</v>
+        <v>0.007543143037210861</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00907272228495651</v>
+        <v>0.007356501877353227</v>
       </c>
       <c r="N11" t="n">
-        <v>0.008784075319131144</v>
+        <v>0.006790472659713893</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008611235810706833</v>
+        <v>0.006790472659713893</v>
       </c>
       <c r="P11" t="n">
-        <v>0.008459596386065563</v>
+        <v>0.006790472659713893</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.008309884376095885</v>
+        <v>0.00675995156066755</v>
       </c>
       <c r="R11" t="n">
-        <v>0.008256626452859126</v>
+        <v>0.00675995156066755</v>
       </c>
       <c r="S11" t="n">
-        <v>0.008138812950416185</v>
+        <v>0.00675995156066755</v>
       </c>
       <c r="T11" t="n">
-        <v>0.008028112115027847</v>
+        <v>0.006596186250338887</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007986934398802589</v>
+        <v>0.006596186250338887</v>
       </c>
       <c r="V11" t="n">
-        <v>0.007967765787042662</v>
+        <v>0.006563827516684257</v>
       </c>
       <c r="W11" t="n">
-        <v>0.007934488099060409</v>
+        <v>0.006563827516684257</v>
       </c>
       <c r="X11" t="n">
-        <v>0.007856166202656065</v>
+        <v>0.006503777979685526</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.007838569195226059</v>
+        <v>0.006468554580037675</v>
       </c>
     </row>
   </sheetData>
